--- a/slate_6/wiips_window_additive_0.5_6_5000_error8.xlsx
+++ b/slate_6/wiips_window_additive_0.5_6_5000_error8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,24 +452,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.577319296500003e-05</v>
+        <v>0.01179320892584238</v>
       </c>
       <c r="B2" t="n">
-        <v>1.832619672499947e-05</v>
+        <v>0.0137670341231042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001564894402208158</v>
+        <v>0.01108954979741558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00228779291195041</v>
+        <v>0.004836120730061354</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002982646972271637</v>
+        <v>0.0002101316871367815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002411572077888205</v>
+        <v>0.009223204792166399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.008892108902748583</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.001998216715862178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01136000087820557</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.008778531448609263</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.002777179264195601</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01268796082522603</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.004363723656967725</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.001210381142726587</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.006203640974190701</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.640427292912724e-05</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0009276075816271003</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0004294835504174006</v>
       </c>
     </row>
   </sheetData>
